--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Mc5r.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Mc5r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Mc5r</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H2">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2202326666666667</v>
+        <v>0.6692483333333333</v>
       </c>
       <c r="N2">
-        <v>0.660698</v>
+        <v>2.007745</v>
       </c>
       <c r="O2">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="P2">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="Q2">
-        <v>0.005267598332222222</v>
+        <v>0.2303599610716666</v>
       </c>
       <c r="R2">
-        <v>0.04740838499</v>
+        <v>2.073239649645</v>
       </c>
       <c r="S2">
-        <v>0.004275063296267497</v>
+        <v>0.1137087126831849</v>
       </c>
       <c r="T2">
-        <v>0.004275063296267497</v>
+        <v>0.113708712683185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H3">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I3">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J3">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.602015</v>
       </c>
       <c r="O3">
-        <v>0.7570648290004852</v>
+        <v>0.6163536244513372</v>
       </c>
       <c r="P3">
-        <v>0.7570648290004851</v>
+        <v>0.6163536244513373</v>
       </c>
       <c r="Q3">
-        <v>0.06060917625833333</v>
+        <v>0.8722222590349999</v>
       </c>
       <c r="R3">
-        <v>0.545482586325</v>
+        <v>7.850000331315</v>
       </c>
       <c r="S3">
-        <v>0.04918903236300845</v>
+        <v>0.430540402017319</v>
       </c>
       <c r="T3">
-        <v>0.04918903236300844</v>
+        <v>0.4305404020173191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +652,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H4">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I4">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J4">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.394196</v>
+        <v>0.885104</v>
       </c>
       <c r="N4">
-        <v>1.182588</v>
+        <v>2.655312</v>
       </c>
       <c r="O4">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="P4">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="Q4">
-        <v>0.009428511326666666</v>
+        <v>0.304658992528</v>
       </c>
       <c r="R4">
-        <v>0.08485660194</v>
+        <v>2.741930932752</v>
       </c>
       <c r="S4">
-        <v>0.00765196588063894</v>
+        <v>0.1503836937918974</v>
       </c>
       <c r="T4">
-        <v>0.00765196588063894</v>
+        <v>0.1503836937918975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.344207</v>
+      </c>
+      <c r="H5">
+        <v>1.032621</v>
+      </c>
+      <c r="I5">
+        <v>0.6985282229833164</v>
+      </c>
+      <c r="J5">
+        <v>0.6985282229833165</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.02391833333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.071755</v>
-      </c>
-      <c r="I5">
-        <v>0.06497334241236681</v>
-      </c>
-      <c r="J5">
-        <v>0.06497334241236681</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.1987103333333333</v>
+        <v>0.022927</v>
       </c>
       <c r="N5">
-        <v>0.596131</v>
+        <v>0.06878099999999999</v>
       </c>
       <c r="O5">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922444</v>
       </c>
       <c r="P5">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922445</v>
       </c>
       <c r="Q5">
-        <v>0.004752819989444444</v>
+        <v>0.007891633888999999</v>
       </c>
       <c r="R5">
-        <v>0.04277537990499999</v>
+        <v>0.071024705001</v>
       </c>
       <c r="S5">
-        <v>0.003857280872451921</v>
+        <v>0.003895414490915003</v>
       </c>
       <c r="T5">
-        <v>0.003857280872451921</v>
+        <v>0.003895414490915004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H6">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I6">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J6">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2202326666666667</v>
+        <v>0.6692483333333333</v>
       </c>
       <c r="N6">
-        <v>0.660698</v>
+        <v>2.007745</v>
       </c>
       <c r="O6">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="P6">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="Q6">
-        <v>0.07580562549533332</v>
+        <v>0.09941907074444445</v>
       </c>
       <c r="R6">
-        <v>0.6822506294579999</v>
+        <v>0.8947716366999999</v>
       </c>
       <c r="S6">
-        <v>0.06152212578991065</v>
+        <v>0.04907456355660809</v>
       </c>
       <c r="T6">
-        <v>0.06152212578991064</v>
+        <v>0.04907456355660809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H7">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I7">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J7">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>7.602015</v>
       </c>
       <c r="O7">
-        <v>0.7570648290004852</v>
+        <v>0.6163536244513372</v>
       </c>
       <c r="P7">
-        <v>0.7570648290004851</v>
+        <v>0.6163536244513373</v>
       </c>
       <c r="Q7">
-        <v>0.8722222590349998</v>
+        <v>0.3764348894333334</v>
       </c>
       <c r="R7">
-        <v>7.850000331314998</v>
+        <v>3.3879140049</v>
       </c>
       <c r="S7">
-        <v>0.7078757966374768</v>
+        <v>0.1858132224340183</v>
       </c>
       <c r="T7">
-        <v>0.7078757966374767</v>
+        <v>0.1858132224340183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +900,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H8">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I8">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J8">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.394196</v>
+        <v>0.885104</v>
       </c>
       <c r="N8">
-        <v>1.182588</v>
+        <v>2.655312</v>
       </c>
       <c r="O8">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="P8">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="Q8">
-        <v>0.135685022572</v>
+        <v>0.1314851495466667</v>
       </c>
       <c r="R8">
-        <v>1.221165203148</v>
+        <v>1.18336634592</v>
       </c>
       <c r="S8">
-        <v>0.1101188859261552</v>
+        <v>0.06490280265004975</v>
       </c>
       <c r="T8">
-        <v>0.1101188859261551</v>
+        <v>0.06490280265004976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H9">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I9">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J9">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1987103333333333</v>
+        <v>0.022927</v>
       </c>
       <c r="N9">
-        <v>0.596131</v>
+        <v>0.06878099999999999</v>
       </c>
       <c r="O9">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922444</v>
       </c>
       <c r="P9">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922445</v>
       </c>
       <c r="Q9">
-        <v>0.06839748770566664</v>
+        <v>0.003405882273333334</v>
       </c>
       <c r="R9">
-        <v>0.6155773893509998</v>
+        <v>0.03065294046</v>
       </c>
       <c r="S9">
-        <v>0.05550984923409066</v>
+        <v>0.001681188376007442</v>
       </c>
       <c r="T9">
-        <v>0.05550984923409065</v>
+        <v>0.001681188376007442</v>
       </c>
     </row>
   </sheetData>
